--- a/sop/exercicios-funcoes.xlsx
+++ b/sop/exercicios-funcoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Isaac\GitHub\java\sop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6AF5B-CE7E-4C36-A01A-F10596A8FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824F39BE-38A8-4041-A084-6F158A23D09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4575" windowWidth="15450" windowHeight="11385" tabRatio="707" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Porcentagem" sheetId="13" r:id="rId1"/>
@@ -1683,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2720,7 +2720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2752,14 +2752,14 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">TODAY()</f>
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C2" s="15">
         <v>25</v>
       </c>
       <c r="D2" s="16">
         <f ca="1">SUM(B2,C2)</f>
-        <v>44921</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2768,14 +2768,14 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">TODAY()</f>
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C3" s="15">
         <v>15</v>
       </c>
       <c r="D3" s="16">
         <f t="shared" ref="D3:D5" ca="1" si="0">SUM(B3,C3)</f>
-        <v>44911</v>
+        <v>44912</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2783,15 +2783,15 @@
         <v>36</v>
       </c>
       <c r="B4" s="14">
-        <f t="shared" ref="B3:B5" ca="1" si="1">TODAY()</f>
-        <v>44896</v>
+        <f t="shared" ref="B4:B5" ca="1" si="1">TODAY()</f>
+        <v>44897</v>
       </c>
       <c r="C4" s="15">
         <v>30</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44926</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2800,14 +2800,14 @@
       </c>
       <c r="B5" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C5" s="15">
         <v>20</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44916</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
